--- a/data/sensors.xlsx
+++ b/data/sensors.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u0861462_umail_utah_edu/Documents/teaching/data_engineering/tutorials/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C305C215-F435-464F-81D1-095750831637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C305C215-F435-464F-81D1-095750831637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD6E049-34A4-4196-9D7E-19F0207CFE57}"/>
   <bookViews>
-    <workbookView xWindow="-21255" yWindow="3210" windowWidth="19125" windowHeight="10140" activeTab="2" xr2:uid="{628D4729-89F2-465E-935B-C5E992D4479B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{628D4729-89F2-465E-935B-C5E992D4479B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensors" sheetId="1" r:id="rId1"/>
     <sheet name="Readings" sheetId="2" r:id="rId2"/>
     <sheet name="AssemblyLines" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>sensor_id</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>reading</t>
+  </si>
+  <si>
+    <t>reading_value</t>
+  </si>
+  <si>
+    <t>line_volume_value</t>
   </si>
 </sst>
 </file>
@@ -264,67 +270,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,67 +342,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,16 +1161,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1538,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198BE780-544E-4F25-A3D8-1DBF46BE19BB}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,6 +1568,9 @@
       <c r="B2" s="1">
         <v>43831</v>
       </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1570,6 +1579,9 @@
       <c r="B3" s="1">
         <v>43831</v>
       </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1578,6 +1590,9 @@
       <c r="B4" s="1">
         <v>43831</v>
       </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1586,6 +1601,9 @@
       <c r="B5" s="1">
         <v>43832</v>
       </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1594,6 +1612,9 @@
       <c r="B6" s="1">
         <v>43832</v>
       </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1602,6 +1623,9 @@
       <c r="B7" s="1">
         <v>43832</v>
       </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1610,6 +1634,9 @@
       <c r="B8" s="1">
         <v>43833</v>
       </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1618,6 +1645,9 @@
       <c r="B9" s="1">
         <v>43833</v>
       </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1626,6 +1656,9 @@
       <c r="B10" s="1">
         <v>43833</v>
       </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1634,6 +1667,9 @@
       <c r="B11" s="1">
         <v>43834</v>
       </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1642,6 +1678,9 @@
       <c r="B12" s="1">
         <v>43834</v>
       </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1650,6 +1689,9 @@
       <c r="B13" s="1">
         <v>43834</v>
       </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,6 +1701,9 @@
       <c r="B14" s="1">
         <v>43835</v>
       </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,6 +1713,9 @@
       <c r="B15" s="1">
         <v>43835</v>
       </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,53 +1725,74 @@
       <c r="B16" s="1">
         <v>43835</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>43836</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>43836</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>43836</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>43837</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>43837</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>43837</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8410143D-9CCB-4730-8CAC-37D8F79C7BB0}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1813,7 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1760,8 +1829,14 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1773,14 +1848,20 @@
       </c>
       <c r="D2">
         <f ca="1">_xlfn.FLOOR.MATH(_xlfn.NORM.INV(RAND(),15,6))</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <f ca="1">_xlfn.FLOOR.MATH(D2+RAND()*4)+40</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1792,14 +1873,20 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D22" ca="1" si="0">_xlfn.FLOOR.MATH(_xlfn.NORM.INV(RAND(),15,6))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E22" ca="1" si="1">_xlfn.FLOOR.MATH(D3+RAND()*4)+40</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -1811,14 +1898,20 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1830,14 +1923,20 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1849,14 +1948,20 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -1868,14 +1973,20 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1887,14 +1998,20 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1906,14 +2023,20 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3000</v>
       </c>
@@ -1925,14 +2048,20 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1944,14 +2073,20 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1963,14 +2098,20 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3000</v>
       </c>
@@ -1982,14 +2123,20 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -2001,14 +2148,20 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -2024,10 +2177,16 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3000</v>
       </c>
@@ -2039,14 +2198,20 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -2058,14 +2223,20 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -2077,14 +2248,20 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -2096,14 +2273,20 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -2115,14 +2298,20 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -2134,14 +2323,20 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -2153,11 +2348,17 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/sensors.xlsx
+++ b/data/sensors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u0861462_umail_utah_edu/Documents/teaching/data_engineering/tutorials/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C305C215-F435-464F-81D1-095750831637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD6E049-34A4-4196-9D7E-19F0207CFE57}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{C305C215-F435-464F-81D1-095750831637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5153888-3702-4E0C-9758-70F0629C1069}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{628D4729-89F2-465E-935B-C5E992D4479B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>sensor_id</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>line_volume</t>
-  </si>
-  <si>
-    <t>reading_id</t>
   </si>
   <si>
     <t>reading</t>
@@ -270,67 +267,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,67 +339,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1542,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,13 +1824,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,11 +1845,11 @@
       </c>
       <c r="D2">
         <f ca="1">_xlfn.FLOOR.MATH(_xlfn.NORM.INV(RAND(),15,6))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f ca="1">_xlfn.FLOOR.MATH(D2+RAND()*4)+40</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>19</v>
@@ -1877,7 +1874,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E22" ca="1" si="1">_xlfn.FLOOR.MATH(D3+RAND()*4)+40</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -1898,11 +1895,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -1923,11 +1920,11 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>22</v>
@@ -1948,11 +1945,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>13</v>
@@ -1973,11 +1970,11 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>13</v>
@@ -1998,11 +1995,11 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -2023,11 +2020,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2048,11 +2045,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>17</v>
@@ -2073,11 +2070,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2098,11 +2095,11 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F12">
         <v>27</v>
@@ -2123,11 +2120,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>23</v>
@@ -2148,11 +2145,11 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>16</v>
@@ -2173,11 +2170,11 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -2198,11 +2195,11 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -2223,11 +2220,11 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>22</v>
@@ -2248,11 +2245,11 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -2273,11 +2270,11 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>19</v>
@@ -2298,11 +2295,11 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>17</v>
@@ -2323,11 +2320,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -2348,11 +2345,11 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>22</v>
